--- a/data/top-manufactuer-shipment.xlsx
+++ b/data/top-manufactuer-shipment.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ganghe/Documents/GitHub/solar-learning-2021/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8083C7EB-E41B-844A-88D9-8156ED201E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -91,22 +100,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,39 +126,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -336,24 +353,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.88"/>
-    <col customWidth="1" min="3" max="3" width="15.5"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -371,13 +391,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="C3" s="1">
-        <v>38515.0</v>
+        <v>38515</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -386,13 +406,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="C4" s="1">
-        <v>24530.0</v>
+        <v>24530</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -404,13 +424,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="C5" s="1">
-        <v>14200.0</v>
+        <v>14200</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -419,13 +439,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="C6" s="1">
-        <v>11400.0</v>
+        <v>11400</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -437,13 +457,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="C7" s="1">
-        <v>9807.0</v>
+        <v>9807</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -455,13 +475,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="C8" s="1">
-        <v>6656.0</v>
+        <v>6656</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -473,13 +493,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="C9" s="1">
-        <v>4825.0</v>
+        <v>4825</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
@@ -491,13 +511,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="C10" s="1">
-        <v>3660.0</v>
+        <v>3660</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -506,13 +526,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="C11" s="1">
-        <v>3250.0</v>
+        <v>3250</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -521,13 +541,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="C12" s="1">
-        <v>2300.0</v>
+        <v>2300</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -536,13 +556,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="C13" s="1">
-        <v>1866.0</v>
+        <v>1866</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -551,13 +571,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="C14" s="1">
-        <v>1584.0</v>
+        <v>1584</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
@@ -566,13 +586,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="C15" s="1">
-        <v>1572.0</v>
+        <v>1572</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -581,13 +601,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="C16" s="1">
-        <v>704.0</v>
+        <v>704</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -598,26 +618,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location=":~:text=%E9%9A%86%E5%9F%BA%E8%82%A1%E4%BB%BD%E8%9D%89%E8%81%942021%E5%B9%B4,%E5%88%B0%E4%BA%8613.701GW%EF%BC%8C%E9%81%A5%E9%81%A5%E9%A2%86%E5%85%88%E3%80%82" ref="E3"/>
-    <hyperlink r:id="rId2" location=":~:text=Among%20these%20manufacturers%2C%20LONGi%20Solar,20%20GW%20PV%20module%20shipment." ref="E4"/>
-    <hyperlink r:id="rId3" location=":~:text=2020%E5%B9%B4%E5%BA%95%EF%BC%8C%E9%9A%86%E5%9F%BA%E8%82%A1%E4%BB%BD%E5%AE%A3%E5%B8%83,55.45%25%EF%BC%8C%E8%87%AA%E7%94%A81.28GW%E3%80%82" ref="F4"/>
-    <hyperlink r:id="rId4" ref="E5"/>
-    <hyperlink r:id="rId5" ref="E6"/>
-    <hyperlink r:id="rId6" ref="F6"/>
-    <hyperlink r:id="rId7" ref="E7"/>
-    <hyperlink r:id="rId8" ref="F7"/>
-    <hyperlink r:id="rId9" ref="E8"/>
-    <hyperlink r:id="rId10" ref="F8"/>
-    <hyperlink r:id="rId11" ref="E9"/>
-    <hyperlink r:id="rId12" ref="F9"/>
-    <hyperlink r:id="rId13" ref="E10"/>
-    <hyperlink r:id="rId14" ref="E11"/>
-    <hyperlink r:id="rId15" location=":~:text=As%20with%20Solarbuzz%2C%20IHS%20reports,5%20in%20the%20IHS%20one." ref="E12"/>
-    <hyperlink r:id="rId16" ref="E13"/>
-    <hyperlink r:id="rId17" ref="E14"/>
-    <hyperlink r:id="rId18" ref="E15"/>
-    <hyperlink r:id="rId19" ref="E16"/>
+    <hyperlink ref="E3" r:id="rId1" location=":~:text=%E9%9A%86%E5%9F%BA%E8%82%A1%E4%BB%BD%E8%9D%89%E8%81%942021%E5%B9%B4,%E5%88%B0%E4%BA%8613.701GW%EF%BC%8C%E9%81%A5%E9%81%A5%E9%A2%86%E5%85%88%E3%80%82" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" location=":~:text=Among%20these%20manufacturers%2C%20LONGi%20Solar,20%20GW%20PV%20module%20shipment." xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" location=":~:text=2020%E5%B9%B4%E5%BA%95%EF%BC%8C%E9%9A%86%E5%9F%BA%E8%82%A1%E4%BB%BD%E5%AE%A3%E5%B8%83,55.45%25%EF%BC%8C%E8%87%AA%E7%94%A81.28GW%E3%80%82" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E12" r:id="rId15" location=":~:text=As%20with%20Solarbuzz%2C%20IHS%20reports,5%20in%20the%20IHS%20one." xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E13" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E15" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E16" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>